--- a/Tochinqoa Frigate.xlsx
+++ b/Tochinqoa Frigate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55D952C-01AF-4E8A-B644-0FC832316FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCE3CEF-6B19-413C-A883-5B32EC913536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{51E93FA3-CA7D-4068-92A0-28303AA2A3AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{51E93FA3-CA7D-4068-92A0-28303AA2A3AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tochinqoa-class Fast Frigate" sheetId="1" r:id="rId1"/>
@@ -559,11 +559,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50448738-41AD-4577-9952-30C4A86299AE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:C29" si="0">B20*4</f>
+        <f t="shared" ref="C20:C24" si="0">B20*4</f>
         <v>4</v>
       </c>
     </row>
@@ -1219,6 +1222,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="84" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tochinqoa Frigate.xlsx
+++ b/Tochinqoa Frigate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCE3CEF-6B19-413C-A883-5B32EC913536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311439CE-BC10-4E88-922D-E6E94A6F4982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{51E93FA3-CA7D-4068-92A0-28303AA2A3AE}"/>
+    <workbookView xWindow="33555" yWindow="2550" windowWidth="13830" windowHeight="7170" xr2:uid="{51E93FA3-CA7D-4068-92A0-28303AA2A3AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tochinqoa-class Fast Frigate" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>Total:</t>
   </si>
   <si>
-    <t>Nuke Damp</t>
-  </si>
-  <si>
     <t>Totals:</t>
   </si>
   <si>
@@ -171,21 +168,6 @@
     <t>Missile Bay 2</t>
   </si>
   <si>
-    <t>PA Tt Battery 1</t>
-  </si>
-  <si>
-    <t>PA Tt Battery 2</t>
-  </si>
-  <si>
-    <t>PA Tt Battery 3</t>
-  </si>
-  <si>
-    <t>PA Tt Battery 4</t>
-  </si>
-  <si>
-    <t>PA Tt Battery 5</t>
-  </si>
-  <si>
     <t>Tlatl Fighter</t>
   </si>
   <si>
@@ -193,6 +175,24 @@
   </si>
   <si>
     <t>Tochinqoa class Missile Frigate</t>
+  </si>
+  <si>
+    <t>Hardpoints</t>
+  </si>
+  <si>
+    <t>PA Bay 1</t>
+  </si>
+  <si>
+    <t>PA Bay 2</t>
+  </si>
+  <si>
+    <t>Triple BL Bty 1</t>
+  </si>
+  <si>
+    <t>Triple BL Bty 2</t>
+  </si>
+  <si>
+    <t>Triple BL Bty 3</t>
   </si>
 </sst>
 </file>
@@ -562,11 +562,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,13 +576,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -608,15 +608,15 @@
         <v>4</v>
       </c>
       <c r="I3">
-        <f>H11-SUM(H16:H42)</f>
-        <v>17</v>
+        <f>H11-SUM(H16:H43)</f>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3">
         <f>ROUND(I3/(0.01*C4),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -657,7 +657,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <f>(2+ 2*B6)/100*C4</f>
+        <f>(2+2*B6)/100*C4</f>
         <v>240</v>
       </c>
       <c r="D6">
@@ -802,12 +802,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -819,7 +819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -831,7 +831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -843,7 +843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -855,7 +855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -867,7 +867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -879,7 +879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -892,19 +892,19 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <f t="shared" ref="C26:C28" si="1">B26*2</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -916,7 +916,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -928,9 +928,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -940,233 +940,224 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30">
         <f>SUM(B19:B29)</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C30">
         <f>SUM(C19:C29)</f>
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D30">
         <f>D16-C30</f>
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F30">
         <f>C30*0.5</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="J32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F33">
         <v>20</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C34">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F34">
         <v>20</v>
       </c>
       <c r="H34">
+        <v>30</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="H35">
         <v>0</v>
       </c>
-      <c r="I34">
+      <c r="I35">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36">
+        <v>43</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="F36">
+        <v>20</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>9</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <f>1*B37</f>
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <f>3*B37</f>
+        <v>15</v>
+      </c>
+      <c r="H37">
+        <f>3*B37</f>
+        <v>15</v>
+      </c>
+      <c r="I37">
         <v>6</v>
       </c>
-      <c r="C36">
-        <f>3*B36</f>
-        <v>18</v>
-      </c>
-      <c r="F36">
-        <f>3*B36</f>
-        <v>18</v>
-      </c>
-      <c r="H36">
-        <f>5*B36</f>
-        <v>30</v>
-      </c>
-      <c r="I36">
+      <c r="J37">
+        <f>B37</f>
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <f>1*B38</f>
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <f>3*B38</f>
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <f>3*B38</f>
+        <v>15</v>
+      </c>
+      <c r="I38">
         <v>6</v>
       </c>
-      <c r="C37">
-        <f t="shared" ref="C37:C40" si="2">3*B37</f>
-        <v>18</v>
-      </c>
-      <c r="F37">
-        <f t="shared" ref="F37:F40" si="3">3*B37</f>
-        <v>18</v>
-      </c>
-      <c r="H37">
-        <f t="shared" ref="H37:H40" si="4">5*B37</f>
-        <v>30</v>
-      </c>
-      <c r="I37">
+      <c r="J38">
+        <f t="shared" ref="J38:J41" si="2">B38</f>
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <f>1*B39</f>
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <f>3*B39</f>
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <f>3*B39</f>
+        <v>15</v>
+      </c>
+      <c r="I39">
         <v>6</v>
       </c>
-      <c r="C38">
+      <c r="J39">
         <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="I38">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="I39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40">
-        <v>6</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="I40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>33</v>
       </c>
-      <c r="C42">
-        <v>50</v>
-      </c>
-      <c r="F42">
-        <v>50</v>
-      </c>
-      <c r="H42">
-        <v>10</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44">
-        <f>SUM(C33:C42)</f>
-        <v>340</v>
-      </c>
-      <c r="D44">
-        <f>D30-C44</f>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C45">
+        <f>SUM(C33:C43)</f>
+        <v>315</v>
+      </c>
+      <c r="D45">
+        <f>D30-C45</f>
+        <v>179</v>
+      </c>
+      <c r="J45">
+        <f>SUM(J33:J43)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47">
-        <v>10</v>
-      </c>
-      <c r="F47">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C48">
         <v>10</v>
@@ -1177,46 +1168,57 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C49">
-        <f>SUM(C47:C48)</f>
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50">
+        <f>SUM(C48:C49)</f>
         <v>20</v>
       </c>
-      <c r="D49">
-        <f>D44-C49</f>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>38</v>
+      <c r="D50">
+        <f>D45-C50</f>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <f>D50-C53</f>
+        <v>149</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>39</v>
       </c>
-      <c r="C52">
-        <v>10</v>
-      </c>
-      <c r="D52">
-        <f>D49-C52</f>
-        <v>128</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F55">
-        <f>SUM(F4:F52)</f>
-        <v>3031.6000000000004</v>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <f>SUM(F4:F53)</f>
+        <v>2978.6000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Tochinqoa Frigate.xlsx
+++ b/Tochinqoa Frigate.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311439CE-BC10-4E88-922D-E6E94A6F4982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B163A7C3-A976-40F1-8294-5E884F5C6AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33555" yWindow="2550" windowWidth="13830" windowHeight="7170" xr2:uid="{51E93FA3-CA7D-4068-92A0-28303AA2A3AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{51E93FA3-CA7D-4068-92A0-28303AA2A3AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tochinqoa-class Fast Frigate" sheetId="1" r:id="rId1"/>
+    <sheet name="Flaming Star Yacht" sheetId="2" r:id="rId2"/>
+    <sheet name="Promised Land Fast Yacht" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
   <si>
     <t>Hull:</t>
   </si>
@@ -193,13 +195,100 @@
   </si>
   <si>
     <t>Triple BL Bty 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flaming Star</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>TL-13 Yacht</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Passengers (High Passage)</t>
+  </si>
+  <si>
+    <t>Low Berths</t>
+  </si>
+  <si>
+    <t>Passenger Cutter 1</t>
+  </si>
+  <si>
+    <t>Passenger Cutter 2</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Promised Land</t>
+    </r>
+  </si>
+  <si>
+    <t>TL-15 Transport</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Model-6</t>
+  </si>
+  <si>
+    <t>Pilot/Nav</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Model-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +306,23 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -242,9 +348,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,9 +671,9 @@
   </sheetPr>
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1102,7 +1209,7 @@
         <v>6</v>
       </c>
       <c r="J38">
-        <f t="shared" ref="J38:J41" si="2">B38</f>
+        <f t="shared" ref="J38:J39" si="2">B38</f>
         <v>5</v>
       </c>
     </row>
@@ -1226,4 +1333,730 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912C5E68-D8FC-4D95-9D3C-EEC472C55573}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <f>0.1*D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>46</v>
+      </c>
+      <c r="E11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <f>0.1*D4*C9</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <f>0.01*D4*C11</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f>B19*4</f>
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f>B19*0.5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:D28" si="0">B20*4</f>
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <f>B20*0.5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <f>B21*0.5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <f>B22*0.5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <f>B23*0.5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <f>B24*0.5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <f>ROUND(SUM(D9:D11)/35,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <f>B25*0.5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <f>B28/8+1</f>
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <f>B26*0.5</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <f>B27*0.5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="E28">
+        <f>B28*0.5</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f>B29*0.5</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f>B29*0.05</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37">
+        <f>D4-SUM(D5:D35)</f>
+        <v>60</v>
+      </c>
+      <c r="E37">
+        <f>SUM(E4:E35)</f>
+        <v>489.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E079B5D-155B-4F46-8AE1-294B898E313D}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <f>0.1*D4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>115</v>
+      </c>
+      <c r="E9">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>67</v>
+      </c>
+      <c r="E11">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <f>0.1*D4*C9</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <f>0.01*D4*C11</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f>B19*4</f>
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f>B19*0.5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:D25" si="0">B20*4</f>
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <f>B20*0.5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <f>B21*0.5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <f>B22*0.5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <f>ROUND(SUM(D9:D11)/35,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <f>B23*0.5</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <f>B24*0.5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E25">
+        <f>B25*0.5</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <f>B26*0.5</f>
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <f>B26*0.05</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30">
+        <f>D4-SUM(D5:D28)</f>
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <f>SUM(E4:E28)</f>
+        <v>581.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>